--- a/biology/Botanique/Controguerra_Pinot_Nero_riserva/Controguerra_Pinot_Nero_riserva.xlsx
+++ b/biology/Botanique/Controguerra_Pinot_Nero_riserva/Controguerra_Pinot_Nero_riserva.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Controguerra Pinot Nero riserva est un vin italien de la région Abruzzes doté d'une appellation DOC depuis le 20 août 1996. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. 
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Teramo dans les communes de Controguerra, Torano Nuovo, Ancarano, Corropoli et Colonnella.
 Le vin rouge du type Pinot Nero riserva répond à un cahier des charges plus  exigeant que le Controguerra Pinot Nero, essentiellement en relation avec le vieillissement et le titre alcoolique.
@@ -544,7 +558,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis pas très intense
 odeur : délicat,
@@ -579,6 +595,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,6 +623,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -630,7 +650,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponible </t>
